--- a/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -60,22 +60,22 @@
     <t>-1 - x</t>
   </si>
   <si>
-    <t>-1.8522320616237735</t>
+    <t>-2.8</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.10379143254523569</t>
+    <t>0.73</t>
   </si>
   <si>
     <t>-1 + x</t>
   </si>
   <si>
-    <t>-0.14776793837622637</t>
-  </si>
-  <si>
-    <t>0.5815339895515225</t>
+    <t>0.7999999999999998</t>
+  </si>
+  <si>
+    <t>0.64</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 0.5008264278971426y</t>
-  </si>
-  <si>
-    <t>-0.22671057511786308</t>
+    <t>-1 + 13.423400888500824y</t>
+  </si>
+  <si>
+    <t>34.57201235452719</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.07674479715761028</t>
-  </si>
-  <si>
-    <t>0.26061391327685735</t>
-  </si>
-  <si>
-    <t>0.3394748891400814</t>
-  </si>
-  <si>
-    <t>-1 - 0.32217057601081467y</t>
-  </si>
-  <si>
-    <t>-1.497440002284614</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>-1 - 0.3518781065793195y</t>
+  </si>
+  <si>
+    <t>-1.9324769824351968</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.3039754280005046</t>
-  </si>
-  <si>
-    <t>0.6042329526598001</t>
-  </si>
-  <si>
-    <t>0.10221880124077497</t>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>2.8000000000000003</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.8522320616237736</t>
-  </si>
-  <si>
-    <t>1.5440267961277625</t>
+    <t>1.7999999999999998</t>
+  </si>
+  <si>
+    <t>2.6500000000000004</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.6373973145118265</t>
+    <t>0.4109019851999818</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.0474078623845726</t>
-  </si>
-  <si>
-    <t>0.48647577572082057</t>
+    <t>3.6722217864842097</t>
+  </si>
+  <si>
+    <t>-26.707137456934824</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.6778294239891853</v>
+        <v>0.6481218934206805</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-2.8</t>
+    <t>2.3000000000000003 - x</t>
+  </si>
+  <si>
+    <t>-3.3000000000000003</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>0.7999999999999998</t>
-  </si>
-  <si>
-    <t>0.64</t>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>-2.3000000000000003 + x</t>
+  </si>
+  <si>
+    <t>1.3000000000000003</t>
+  </si>
+  <si>
+    <t>0.17</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 13.423400888500824y</t>
-  </si>
-  <si>
-    <t>34.57201235452719</t>
+    <t>-10.877777777777776 + 2.4444444444444446y</t>
+  </si>
+  <si>
+    <t>9.877777777777776</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>-1 - 0.3518781065793195y</t>
-  </si>
-  <si>
-    <t>-1.9324769824351968</t>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>-5.562499999999999 + 1.25y</t>
+  </si>
+  <si>
+    <t>4.562499999999999</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>2.8000000000000003</t>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>7.199999999999999</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.7999999999999998</t>
-  </si>
-  <si>
-    <t>2.6500000000000004</t>
+    <t>2.3000000000000003</t>
+  </si>
+  <si>
+    <t>4.449999999999999</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.4109019851999818</t>
+    <t>-1.084944444444441</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>3.6722217864842097</t>
-  </si>
-  <si>
-    <t>-26.707137456934824</t>
+    <t>25.035000000000007</t>
+  </si>
+  <si>
+    <t>-22.219444444444445</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.6481218934206805</v>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/Experimentos_Generador/MitsosBarton2006Ex313__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>2.3000000000000003 - x</t>
-  </si>
-  <si>
-    <t>-3.3000000000000003</t>
+    <t>1.0499999999999998 - x</t>
+  </si>
+  <si>
+    <t>-2.05</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>-2.3000000000000003 + x</t>
-  </si>
-  <si>
-    <t>1.3000000000000003</t>
-  </si>
-  <si>
-    <t>0.17</t>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>-1.05 + x</t>
+  </si>
+  <si>
+    <t>0.050000000000000044</t>
+  </si>
+  <si>
+    <t>0.72</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-10.877777777777776 + 2.4444444444444446y</t>
-  </si>
-  <si>
-    <t>9.877777777777776</t>
+    <t>-1 + 0.3508771929824561y</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>-5.562499999999999 + 1.25y</t>
-  </si>
-  <si>
-    <t>4.562499999999999</t>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>-6.661338147750939e-16 + 2.220446049250313e-16y</t>
+  </si>
+  <si>
+    <t>-0.9999999999999993</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>7.199999999999999</t>
-  </si>
-  <si>
-    <t>1.0</t>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>5.8999999999999995</t>
+  </si>
+  <si>
+    <t>5.699999999999999</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>2.3000000000000003</t>
-  </si>
-  <si>
-    <t>4.449999999999999</t>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>2.85</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.084944444444441</t>
+    <t>-1.9997872807017547</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>25.035000000000007</t>
-  </si>
-  <si>
-    <t>-22.219444444444445</t>
+    <t>-0.6976749999999999</t>
+  </si>
+  <si>
+    <t>-1.8832192982456155</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.25</v>
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>
